--- a/level-2/hackerearth-phase-2-algorithms-searching/hackerearth-phase-2-algorithms-searching.xlsx
+++ b/level-2/hackerearth-phase-2-algorithms-searching/hackerearth-phase-2-algorithms-searching.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3186A-EB14-47CA-9F41-0023D1D982CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67605" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 - algorithms-searching" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -433,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,14 +501,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -623,15 +624,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,6 +650,15 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,6 +888,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -922,6 +940,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,73 +1132,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="67.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.28515625" style="13" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="6" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
@@ -1197,7 +1232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1214,11 +1249,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1234,11 +1269,11 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1255,11 +1290,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1276,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1297,11 +1332,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1318,11 +1353,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1339,11 +1374,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1360,11 +1395,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1381,11 +1416,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1402,11 +1437,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1423,11 +1458,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1444,11 +1479,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1465,11 +1500,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1486,11 +1521,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1507,11 +1542,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1528,11 +1563,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1549,11 +1584,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1570,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -1591,11 +1626,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1612,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1633,11 +1668,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1654,11 +1689,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1675,11 +1710,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1696,11 +1731,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1717,11 +1752,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -1738,11 +1773,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1759,11 +1794,11 @@
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1780,11 +1815,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -1801,11 +1836,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -1822,11 +1857,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -1843,11 +1878,11 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1864,11 +1899,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -1885,11 +1920,11 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -1906,11 +1941,11 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -1927,11 +1962,11 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -1948,11 +1983,11 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1969,11 +2004,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -1990,11 +2025,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2011,11 +2046,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>29</v>
       </c>
@@ -2032,11 +2067,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
@@ -2053,11 +2088,11 @@
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
@@ -2074,11 +2109,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
@@ -2095,11 +2130,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
@@ -2116,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>29</v>
       </c>
@@ -2137,11 +2172,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>29</v>
       </c>
@@ -2158,11 +2193,11 @@
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>29</v>
       </c>
@@ -2179,11 +2214,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
@@ -2200,11 +2235,11 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
@@ -2221,11 +2256,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>29</v>
       </c>
@@ -2242,11 +2277,11 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -2263,11 +2298,11 @@
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
@@ -2284,11 +2319,11 @@
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>29</v>
       </c>
@@ -2305,11 +2340,11 @@
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
@@ -2326,11 +2361,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
@@ -2347,11 +2382,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>29</v>
       </c>
@@ -2368,11 +2403,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>29</v>
       </c>
@@ -2389,11 +2424,11 @@
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
@@ -2410,11 +2445,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>29</v>
       </c>
@@ -2431,11 +2466,11 @@
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>29</v>
       </c>
@@ -2452,11 +2487,11 @@
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>29</v>
       </c>
@@ -2473,11 +2508,11 @@
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
@@ -2494,11 +2529,11 @@
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>29</v>
       </c>
@@ -2515,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
@@ -2536,11 +2571,11 @@
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>29</v>
       </c>
@@ -2557,11 +2592,11 @@
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>29</v>
       </c>
@@ -2578,11 +2613,11 @@
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>29</v>
       </c>
@@ -2599,11 +2634,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>29</v>
       </c>
@@ -2620,11 +2655,11 @@
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>29</v>
       </c>
@@ -2637,15 +2672,15 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H135" si="2">SUM(C72:G72)</f>
+        <f t="shared" ref="H72:H125" si="2">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>29</v>
       </c>
@@ -2662,11 +2697,11 @@
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>29</v>
       </c>
@@ -2682,11 +2717,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
@@ -2702,11 +2737,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>29</v>
       </c>
@@ -2722,11 +2757,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>29</v>
       </c>
@@ -2742,11 +2777,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J77" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>29</v>
       </c>
@@ -2762,11 +2797,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>29</v>
       </c>
@@ -2782,11 +2817,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
@@ -2802,11 +2837,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>29</v>
       </c>
@@ -2822,11 +2857,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>29</v>
       </c>
@@ -2842,11 +2877,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>29</v>
       </c>
@@ -2862,11 +2897,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>29</v>
       </c>
@@ -2882,11 +2917,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
@@ -2902,11 +2937,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -2922,11 +2957,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>29</v>
       </c>
@@ -2942,11 +2977,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
@@ -2962,11 +2997,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>29</v>
       </c>
@@ -2982,11 +3017,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -3002,11 +3037,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="J90" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>29</v>
       </c>
@@ -3022,11 +3057,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>29</v>
       </c>
@@ -3042,11 +3077,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J92" s="12" t="s">
+      <c r="J92" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>29</v>
       </c>
@@ -3062,11 +3097,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>29</v>
       </c>
@@ -3082,11 +3117,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
@@ -3102,11 +3137,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>29</v>
       </c>
@@ -3122,11 +3157,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>29</v>
       </c>
@@ -3142,11 +3177,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J97" s="12" t="s">
+      <c r="J97" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3162,11 +3197,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>29</v>
       </c>
@@ -3182,11 +3217,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>29</v>
       </c>
@@ -3202,11 +3237,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>29</v>
       </c>
@@ -3222,11 +3257,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>29</v>
       </c>
@@ -3242,11 +3277,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>29</v>
       </c>
@@ -3262,11 +3297,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>29</v>
       </c>
@@ -3282,11 +3317,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="12" t="s">
+      <c r="J104" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
@@ -3302,11 +3337,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>29</v>
       </c>
@@ -3322,11 +3357,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J106" s="12" t="s">
+      <c r="J106" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>29</v>
       </c>
@@ -3342,11 +3377,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J107" s="12" t="s">
+      <c r="J107" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>29</v>
       </c>
@@ -3362,11 +3397,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>29</v>
       </c>
@@ -3382,11 +3417,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J109" s="12" t="s">
+      <c r="J109" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>29</v>
       </c>
@@ -3402,11 +3437,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J110" s="12" t="s">
+      <c r="J110" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>29</v>
       </c>
@@ -3422,11 +3457,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="J111" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>29</v>
       </c>
@@ -3442,11 +3477,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>29</v>
       </c>
@@ -3462,11 +3497,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>29</v>
       </c>
@@ -3482,11 +3517,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
@@ -3502,11 +3537,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J115" s="12" t="s">
+      <c r="J115" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>29</v>
       </c>
@@ -3522,11 +3557,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>29</v>
       </c>
@@ -3542,11 +3577,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J117" s="12" t="s">
+      <c r="J117" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>29</v>
       </c>
@@ -3562,11 +3597,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J118" s="12" t="s">
+      <c r="J118" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>29</v>
       </c>
@@ -3582,11 +3617,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J119" s="12" t="s">
+      <c r="J119" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>131</v>
       </c>
@@ -3602,11 +3637,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J120" s="12" t="s">
+      <c r="J120" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>131</v>
       </c>
@@ -3622,11 +3657,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>131</v>
       </c>
@@ -3642,11 +3677,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J122" s="12" t="s">
+      <c r="J122" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>131</v>
       </c>
@@ -3662,11 +3697,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>131</v>
       </c>
@@ -3682,11 +3717,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J124" s="12" t="s">
+      <c r="J124" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>131</v>
       </c>
@@ -3702,11 +3737,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J125" s="12" t="s">
+      <c r="J125" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="9"/>
@@ -3715,9 +3750,9 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="7"/>
-      <c r="J126" s="12"/>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J126" s="21"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="9"/>
@@ -3726,9 +3761,9 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="7"/>
-      <c r="J127" s="12"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J127" s="21"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="9"/>
@@ -3737,9 +3772,9 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="7"/>
-      <c r="J128" s="12"/>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="21"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="9"/>
@@ -3748,9 +3783,9 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="7"/>
-      <c r="J129" s="12"/>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="21"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="9"/>
@@ -3759,9 +3794,9 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="7"/>
-      <c r="J130" s="12"/>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J130" s="21"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="8"/>
@@ -3770,9 +3805,9 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7"/>
-      <c r="J131" s="12"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J131" s="21"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="9"/>
@@ -3781,9 +3816,9 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="7"/>
-      <c r="J132" s="12"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J132" s="21"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="9"/>
@@ -3792,9 +3827,9 @@
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="7"/>
-      <c r="J133" s="12"/>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="9"/>
@@ -3803,9 +3838,9 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="7"/>
-      <c r="J134" s="12"/>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J134" s="21"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="9"/>
@@ -3814,9 +3849,9 @@
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="7"/>
-      <c r="J135" s="12"/>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J135" s="21"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="9"/>
@@ -3825,9 +3860,9 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="7"/>
-      <c r="J136" s="12"/>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J136" s="21"/>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="8"/>
@@ -3836,9 +3871,9 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7"/>
-      <c r="J137" s="12"/>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J137" s="21"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="9"/>
@@ -3847,9 +3882,9 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="7"/>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J138" s="21"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="9"/>
@@ -3858,9 +3893,9 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="7"/>
-      <c r="J139" s="12"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J139" s="21"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="8"/>
@@ -3869,9 +3904,9 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="7"/>
-      <c r="J140" s="12"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J140" s="21"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="9"/>
@@ -3880,9 +3915,9 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="7"/>
-      <c r="J141" s="12"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J141" s="21"/>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="9"/>
@@ -3891,9 +3926,9 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="7"/>
-      <c r="J142" s="12"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J142" s="21"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="9"/>
@@ -3902,9 +3937,9 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
-      <c r="J143" s="12"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J143" s="21"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="8"/>
@@ -3913,9 +3948,9 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="7"/>
-      <c r="J144" s="12"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J144" s="21"/>
+    </row>
+    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -3924,7 +3959,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -3933,7 +3968,7 @@
       <c r="G146" s="9"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -3942,7 +3977,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -3951,7 +3986,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -3960,7 +3995,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -3969,7 +4004,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -3978,7 +4013,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -3987,7 +4022,7 @@
       <c r="G152" s="9"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -3996,7 +4031,7 @@
       <c r="G153" s="9"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -4005,7 +4040,7 @@
       <c r="G154" s="9"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -4014,7 +4049,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -4023,7 +4058,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -4032,7 +4067,7 @@
       <c r="G157" s="9"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -4041,7 +4076,7 @@
       <c r="G158" s="9"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -4050,7 +4085,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -4059,7 +4094,7 @@
       <c r="G160" s="9"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -4068,7 +4103,7 @@
       <c r="G161" s="9"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -4077,7 +4112,7 @@
       <c r="G162" s="9"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -4086,7 +4121,7 @@
       <c r="G163" s="9"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -4095,7 +4130,7 @@
       <c r="G164" s="9"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -4104,7 +4139,7 @@
       <c r="G165" s="9"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -4113,7 +4148,7 @@
       <c r="G166" s="9"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -4122,7 +4157,7 @@
       <c r="G167" s="9"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -4130,7 +4165,7 @@
       <c r="G168" s="9"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -4138,7 +4173,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -4146,7 +4181,7 @@
       <c r="G170" s="9"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -4154,7 +4189,7 @@
       <c r="G171" s="9"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -4162,7 +4197,7 @@
       <c r="G172" s="9"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -4170,7 +4205,7 @@
       <c r="G173" s="9"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -4178,7 +4213,7 @@
       <c r="G174" s="9"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -4186,7 +4221,7 @@
       <c r="G175" s="9"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -4303,128 +4338,128 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-    <hyperlink ref="J7" r:id="rId4"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="J9" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="J13" r:id="rId10"/>
-    <hyperlink ref="J14" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J17" r:id="rId14"/>
-    <hyperlink ref="J18" r:id="rId15"/>
-    <hyperlink ref="J19" r:id="rId16"/>
-    <hyperlink ref="J20" r:id="rId17"/>
-    <hyperlink ref="J21" r:id="rId18"/>
-    <hyperlink ref="J22" r:id="rId19"/>
-    <hyperlink ref="J23" r:id="rId20"/>
-    <hyperlink ref="J24" r:id="rId21"/>
-    <hyperlink ref="J25" r:id="rId22"/>
-    <hyperlink ref="J26" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25"/>
-    <hyperlink ref="J29" r:id="rId26"/>
-    <hyperlink ref="J30" r:id="rId27"/>
-    <hyperlink ref="J31" r:id="rId28"/>
-    <hyperlink ref="J32" r:id="rId29"/>
-    <hyperlink ref="J33" r:id="rId30"/>
-    <hyperlink ref="J34" r:id="rId31"/>
-    <hyperlink ref="J35" r:id="rId32"/>
-    <hyperlink ref="J36" r:id="rId33"/>
-    <hyperlink ref="J37" r:id="rId34"/>
-    <hyperlink ref="J38" r:id="rId35"/>
-    <hyperlink ref="J39" r:id="rId36"/>
-    <hyperlink ref="J40" r:id="rId37"/>
-    <hyperlink ref="J41" r:id="rId38"/>
-    <hyperlink ref="J42" r:id="rId39"/>
-    <hyperlink ref="J43" r:id="rId40"/>
-    <hyperlink ref="J44" r:id="rId41"/>
-    <hyperlink ref="J45" r:id="rId42"/>
-    <hyperlink ref="J46" r:id="rId43"/>
-    <hyperlink ref="J47" r:id="rId44"/>
-    <hyperlink ref="J48" r:id="rId45"/>
-    <hyperlink ref="J49" r:id="rId46"/>
-    <hyperlink ref="J50" r:id="rId47"/>
-    <hyperlink ref="J51" r:id="rId48"/>
-    <hyperlink ref="J52" r:id="rId49"/>
-    <hyperlink ref="J53" r:id="rId50"/>
-    <hyperlink ref="J54" r:id="rId51"/>
-    <hyperlink ref="J55" r:id="rId52"/>
-    <hyperlink ref="J56" r:id="rId53"/>
-    <hyperlink ref="J57" r:id="rId54"/>
-    <hyperlink ref="J58" r:id="rId55"/>
-    <hyperlink ref="J59" r:id="rId56"/>
-    <hyperlink ref="J60" r:id="rId57"/>
-    <hyperlink ref="J61" r:id="rId58"/>
-    <hyperlink ref="J62" r:id="rId59"/>
-    <hyperlink ref="J63" r:id="rId60"/>
-    <hyperlink ref="J64" r:id="rId61"/>
-    <hyperlink ref="J65" r:id="rId62"/>
-    <hyperlink ref="J66" r:id="rId63"/>
-    <hyperlink ref="J67" r:id="rId64"/>
-    <hyperlink ref="J68" r:id="rId65"/>
-    <hyperlink ref="J69" r:id="rId66"/>
-    <hyperlink ref="J70" r:id="rId67"/>
-    <hyperlink ref="J71" r:id="rId68"/>
-    <hyperlink ref="J72" r:id="rId69"/>
-    <hyperlink ref="J73" r:id="rId70"/>
-    <hyperlink ref="J74" r:id="rId71"/>
-    <hyperlink ref="J75" r:id="rId72"/>
-    <hyperlink ref="J76" r:id="rId73"/>
-    <hyperlink ref="J77" r:id="rId74"/>
-    <hyperlink ref="J78" r:id="rId75"/>
-    <hyperlink ref="J79" r:id="rId76"/>
-    <hyperlink ref="J80" r:id="rId77"/>
-    <hyperlink ref="J81" r:id="rId78"/>
-    <hyperlink ref="J82" r:id="rId79"/>
-    <hyperlink ref="J83" r:id="rId80"/>
-    <hyperlink ref="J84" r:id="rId81"/>
-    <hyperlink ref="J85" r:id="rId82"/>
-    <hyperlink ref="J86" r:id="rId83"/>
-    <hyperlink ref="J87" r:id="rId84"/>
-    <hyperlink ref="J88" r:id="rId85"/>
-    <hyperlink ref="J89" r:id="rId86"/>
-    <hyperlink ref="J90" r:id="rId87"/>
-    <hyperlink ref="J91" r:id="rId88"/>
-    <hyperlink ref="J92" r:id="rId89"/>
-    <hyperlink ref="J93" r:id="rId90"/>
-    <hyperlink ref="J94" r:id="rId91"/>
-    <hyperlink ref="J95" r:id="rId92"/>
-    <hyperlink ref="J96" r:id="rId93"/>
-    <hyperlink ref="J97" r:id="rId94"/>
-    <hyperlink ref="J98" r:id="rId95"/>
-    <hyperlink ref="J99" r:id="rId96"/>
-    <hyperlink ref="J100" r:id="rId97"/>
-    <hyperlink ref="J101" r:id="rId98"/>
-    <hyperlink ref="J102" r:id="rId99"/>
-    <hyperlink ref="J103" r:id="rId100"/>
-    <hyperlink ref="J104" r:id="rId101"/>
-    <hyperlink ref="J105" r:id="rId102"/>
-    <hyperlink ref="J106" r:id="rId103"/>
-    <hyperlink ref="J107" r:id="rId104"/>
-    <hyperlink ref="J108" r:id="rId105"/>
-    <hyperlink ref="J109" r:id="rId106"/>
-    <hyperlink ref="J110" r:id="rId107"/>
-    <hyperlink ref="J111" r:id="rId108"/>
-    <hyperlink ref="J112" r:id="rId109"/>
-    <hyperlink ref="J113" r:id="rId110"/>
-    <hyperlink ref="J114" r:id="rId111"/>
-    <hyperlink ref="J115" r:id="rId112"/>
-    <hyperlink ref="J116" r:id="rId113"/>
-    <hyperlink ref="J117" r:id="rId114"/>
-    <hyperlink ref="J118" r:id="rId115"/>
-    <hyperlink ref="J119" r:id="rId116"/>
-    <hyperlink ref="J120" r:id="rId117"/>
-    <hyperlink ref="J121" r:id="rId118"/>
-    <hyperlink ref="J122" r:id="rId119"/>
-    <hyperlink ref="J123" r:id="rId120"/>
-    <hyperlink ref="J124" r:id="rId121"/>
-    <hyperlink ref="J125" r:id="rId122"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J117" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J118" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J119" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J120" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J121" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J122" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J123" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J124" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J125" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId123"/>
